--- a/Mifos Automation Excels/Client/3013-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3013-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-CASH-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -763,10 +763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A6" sqref="A6:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,63 +839,43 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="A4" s="16">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>300</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>300</v>
-      </c>
-      <c r="F5" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
+      <c r="A5" s="16">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="F5" s="16">
+        <v>17.760000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +888,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R8"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,6 +986,7 @@
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
       <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1033,10 +1014,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="16">
-        <v>93.16</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K3" s="16">
-        <v>887.72</v>
+        <v>896.6</v>
       </c>
       <c r="L3" s="16">
         <v>0</v>
@@ -1047,8 +1028,11 @@
       <c r="N3" s="16">
         <v>0</v>
       </c>
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
       <c r="P3" s="16">
-        <v>987.72</v>
+        <v>896.6</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1076,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="16">
-        <v>85.1</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K4" s="16">
-        <v>887.72</v>
+        <v>896.6</v>
       </c>
       <c r="L4" s="16">
         <v>0</v>
@@ -1090,8 +1074,11 @@
       <c r="N4" s="16">
         <v>0</v>
       </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
       <c r="P4" s="16">
-        <v>987.72</v>
+        <v>896.6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1119,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="16">
-        <v>77.34</v>
+        <v>0</v>
       </c>
       <c r="K5" s="16">
         <v>887.72</v>
@@ -1133,8 +1120,11 @@
       <c r="N5" s="16">
         <v>0</v>
       </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
       <c r="P5" s="16">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1176,6 +1166,9 @@
       <c r="N6" s="16">
         <v>0</v>
       </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
       <c r="P6" s="16">
         <v>887.72</v>
       </c>
@@ -1219,6 +1212,9 @@
       <c r="N7" s="16">
         <v>0</v>
       </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
       <c r="P7" s="16">
         <v>887.72</v>
       </c>
@@ -1262,6 +1258,9 @@
       <c r="N8" s="16">
         <v>0</v>
       </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
       <c r="P8" s="16">
         <v>887.72</v>
       </c>
@@ -1305,6 +1304,9 @@
       <c r="N9" s="16">
         <v>0</v>
       </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
       <c r="P9" s="16">
         <v>887.72</v>
       </c>
@@ -1348,6 +1350,9 @@
       <c r="N10" s="16">
         <v>0</v>
       </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
       <c r="P10" s="16">
         <v>887.72</v>
       </c>
@@ -1391,6 +1396,9 @@
       <c r="N11" s="16">
         <v>0</v>
       </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
       <c r="P11" s="16">
         <v>887.72</v>
       </c>
@@ -1434,6 +1442,9 @@
       <c r="N12" s="16">
         <v>0</v>
       </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
       <c r="P12" s="16">
         <v>887.72</v>
       </c>
@@ -1477,6 +1488,9 @@
       <c r="N13" s="16">
         <v>0</v>
       </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
       <c r="P13" s="16">
         <v>887.72</v>
       </c>
@@ -1509,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <v>887.72</v>
+        <v>920.15</v>
       </c>
       <c r="L14" s="16">
         <v>0</v>
@@ -1520,8 +1534,11 @@
       <c r="N14" s="16">
         <v>0</v>
       </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
       <c r="P14" s="16">
-        <v>887.72</v>
+        <v>920.15</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/3013-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3013-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-CASH-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -885,10 +885,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,12 +906,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -951,17 +952,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17">
@@ -988,8 +990,9 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1025,17 +1028,18 @@
       <c r="M3" s="16">
         <v>0</v>
       </c>
-      <c r="N3" s="16">
-        <v>0</v>
-      </c>
+      <c r="N3" s="16"/>
       <c r="O3" s="16">
         <v>0</v>
       </c>
       <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
         <v>896.6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1071,17 +1075,18 @@
       <c r="M4" s="16">
         <v>0</v>
       </c>
-      <c r="N4" s="16">
-        <v>0</v>
-      </c>
+      <c r="N4" s="16"/>
       <c r="O4" s="16">
         <v>0</v>
       </c>
       <c r="P4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
         <v>896.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1117,17 +1122,18 @@
       <c r="M5" s="16">
         <v>0</v>
       </c>
-      <c r="N5" s="16">
-        <v>0</v>
-      </c>
+      <c r="N5" s="16"/>
       <c r="O5" s="16">
         <v>0</v>
       </c>
       <c r="P5" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1163,17 +1169,18 @@
       <c r="M6" s="16">
         <v>0</v>
       </c>
-      <c r="N6" s="16">
-        <v>0</v>
-      </c>
+      <c r="N6" s="16"/>
       <c r="O6" s="16">
         <v>0</v>
       </c>
       <c r="P6" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1209,17 +1216,18 @@
       <c r="M7" s="16">
         <v>0</v>
       </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
+      <c r="N7" s="16"/>
       <c r="O7" s="16">
         <v>0</v>
       </c>
       <c r="P7" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1255,17 +1263,18 @@
       <c r="M8" s="16">
         <v>0</v>
       </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
+      <c r="N8" s="16"/>
       <c r="O8" s="16">
         <v>0</v>
       </c>
       <c r="P8" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -1301,17 +1310,18 @@
       <c r="M9" s="16">
         <v>0</v>
       </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
+      <c r="N9" s="16"/>
       <c r="O9" s="16">
         <v>0</v>
       </c>
       <c r="P9" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -1347,17 +1357,18 @@
       <c r="M10" s="16">
         <v>0</v>
       </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
+      <c r="N10" s="16"/>
       <c r="O10" s="16">
         <v>0</v>
       </c>
       <c r="P10" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -1393,17 +1404,18 @@
       <c r="M11" s="16">
         <v>0</v>
       </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
+      <c r="N11" s="16"/>
       <c r="O11" s="16">
         <v>0</v>
       </c>
       <c r="P11" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1439,17 +1451,18 @@
       <c r="M12" s="16">
         <v>0</v>
       </c>
-      <c r="N12" s="16">
-        <v>0</v>
-      </c>
+      <c r="N12" s="16"/>
       <c r="O12" s="16">
         <v>0</v>
       </c>
       <c r="P12" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -1485,17 +1498,18 @@
       <c r="M13" s="16">
         <v>0</v>
       </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
+      <c r="N13" s="16"/>
       <c r="O13" s="16">
         <v>0</v>
       </c>
       <c r="P13" s="16">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1531,13 +1545,14 @@
       <c r="M14" s="16">
         <v>0</v>
       </c>
-      <c r="N14" s="16">
-        <v>0</v>
-      </c>
+      <c r="N14" s="16"/>
       <c r="O14" s="16">
         <v>0</v>
       </c>
       <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
         <v>920.15</v>
       </c>
     </row>
@@ -1551,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
